--- a/Excel/auth_64/main/00/s03/cmn.xlsx
+++ b/Excel/auth_64/main/00/s03/cmn.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>OFFSET</t>
   </si>
@@ -20,139 +20,275 @@
     <t>ORIGINAL</t>
   </si>
   <si>
-    <t>TRADUÇÃO</t>
+    <t>TRADUCCIÓN</t>
   </si>
   <si>
     <t>Yumi-chan! Happy birthday!</t>
   </si>
   <si>
+    <t>Yumi-chan! Feliz aniversário!</t>
+  </si>
+  <si>
     <t>Happy birthday, Yumi!</t>
   </si>
   <si>
+    <t>Feliz aniversário, Yumi!</t>
+  </si>
+  <si>
     <t>Happy birthday!</t>
   </si>
   <si>
+    <t>Feliz aniversário!</t>
+  </si>
+  <si>
     <t>Thanks, everyone!</t>
   </si>
   <si>
+    <t>Obrigado, pessoal!</t>
+  </si>
+  <si>
     <t>Here, Yumi. I got you a present.</t>
   </si>
   <si>
+    <t>Aqui, Yumi. Eu trouxe um presente.</t>
+  </si>
+  <si>
     <t>What, really? Can I open it now?</t>
   </si>
   <si>
+    <t>Sério? O que é? Posso abrí-lo agora?</t>
+  </si>
+  <si>
     <t>Of course.</t>
   </si>
   <si>
+    <t>Com certeza.</t>
+  </si>
+  <si>
     <t>Wow, it's gorgeous!</t>
   </si>
   <si>
+    <t>Uau, é lindo!</t>
+  </si>
+  <si>
     <t>Are you sure!?\nIs this really mine to keep?</t>
   </si>
   <si>
+    <t>Tem certeza!?\nIsso é realmente meu?</t>
+  </si>
+  <si>
     <t>Absolutely.</t>
   </si>
   <si>
+    <t>É claro.</t>
+  </si>
+  <si>
     <t>Umm, Yumi.</t>
   </si>
   <si>
+    <t>Sabe, Yumi.</t>
+  </si>
+  <si>
     <t>Actually...</t>
   </si>
   <si>
+    <t>Na verdade...</t>
+  </si>
+  <si>
     <t>I have a present for you too.</t>
   </si>
   <si>
+    <t>Eu também tenho um presente para você.</t>
+  </si>
+  <si>
     <t>Oh, really? Thank you!</t>
   </si>
   <si>
+    <t>Nossa, sério? Obrigado!</t>
+  </si>
+  <si>
     <t>Here... Here you go.</t>
   </si>
   <si>
+    <t>Aqui... Aqui está.</t>
+  </si>
+  <si>
     <t>A ring...</t>
   </si>
   <si>
+    <t>Um anel...</t>
+  </si>
+  <si>
     <t>Kazuma, is this for me?</t>
   </si>
   <si>
+    <t>Kazuma, isso é para mim?</t>
+  </si>
+  <si>
     <t>Hey hey, what's up with that tacky ring?\nYou find it in the bargain bin?</t>
   </si>
   <si>
+    <t>Ei, ei, o que há de errado com esse anel fedorento?
+\nEncontrou ele no lixo?</t>
+  </si>
+  <si>
     <t>C'mon, don't be mean!</t>
   </si>
   <si>
+    <t>Vamos, não seja sacana!</t>
+  </si>
+  <si>
     <t>Oh! It has my name engraved on it!</t>
   </si>
   <si>
+    <t>Olha! Meu nome está gravado nele!</t>
+  </si>
+  <si>
     <t>Was that too much?</t>
   </si>
   <si>
+    <t>Isso foi demais?</t>
+  </si>
+  <si>
     <t>No, not at all!</t>
   </si>
   <si>
+    <t>Não, de forma alguma!</t>
+  </si>
+  <si>
     <t>Thank you. I'll treasure it.</t>
   </si>
   <si>
+    <t>Obrigado. Vou guardar isso como um tesouro.</t>
+  </si>
+  <si>
     <t>Sure.</t>
   </si>
   <si>
+    <t>Claro.</t>
+  </si>
+  <si>
     <t>By the way, isn't it almost your birthday,\nYumi-chan?</t>
   </si>
   <si>
+    <t>A propósito, não é quase o seu aniversário, 
+\nYumi-chan?</t>
+  </si>
+  <si>
     <t>Oh, is it? I'll have to get you a present!</t>
   </si>
   <si>
+    <t>Ah, é mesmo? Então tenho de te comprar um presente!</t>
+  </si>
+  <si>
     <t>How about... a ring?</t>
   </si>
   <si>
+    <t>Que tal... um anel?</t>
+  </si>
+  <si>
     <t>A ring?</t>
   </si>
   <si>
+    <t>Um anel?</t>
+  </si>
+  <si>
     <t>Thank you for the offer, but...</t>
   </si>
   <si>
+    <t>Obrigado pela oferta, mas...</t>
+  </si>
+  <si>
     <t>That would be too much.</t>
   </si>
   <si>
+    <t>Isso seria demais.</t>
+  </si>
+  <si>
     <t>Huh? What do you mean?</t>
   </si>
   <si>
+    <t>Hã? Como assim?</t>
+  </si>
+  <si>
     <t>You know, I'd want a ring from...</t>
   </si>
   <si>
+    <t>Você sabe, eu quero um anel de...</t>
+  </si>
+  <si>
     <t>From someone I was in love with, so...</t>
   </si>
   <si>
+    <t>De uma pessoa da qual era apaixonada, por isso...</t>
+  </si>
+  <si>
     <t>Oh, what?\nAre you saying you're in love with someone?</t>
   </si>
   <si>
+    <t>Hã, o que?\nEsta dizendo que você está apaixonada por alguém?</t>
+  </si>
+  <si>
     <t>Oh no, it's not like that, but...</t>
   </si>
   <si>
+    <t>Ah não, não é nada disso, mas...</t>
+  </si>
+  <si>
     <t>Sorry, but it's the thought that counts!</t>
   </si>
   <si>
+    <t>Desculpe, mas o que vale é a intenção!</t>
+  </si>
+  <si>
     <t>Aw, did I just get rejected, Yumi-chan!?</t>
   </si>
   <si>
+    <t>Ah, eu acabei de ser rejeitado, Yumi-chan!?</t>
+  </si>
+  <si>
     <t>Hey!</t>
   </si>
   <si>
+    <t>Ei!</t>
+  </si>
+  <si>
     <t>We're paying customers too, y'know!</t>
   </si>
   <si>
+    <t>Também somos clientes, sabe!</t>
+  </si>
+  <si>
     <t>So, what are you going to get me when my\nbirthday rolls around?</t>
   </si>
   <si>
+    <t>Então, o que vocês vão me dar 
+\nquando meu aniversário chegar?</t>
+  </si>
+  <si>
     <t>No idea.</t>
   </si>
   <si>
+    <t>Vai saber.</t>
+  </si>
+  <si>
     <t>Then Kiryu-chan, you can give me a necklace.\nAnd Nishikiyama-kun can get me...</t>
   </si>
   <si>
+    <t>Então Kiryu-chan, você pode me dar um colar.
+\nE Nishikiyama-kun pode me dar...</t>
+  </si>
+  <si>
     <t>A ring, maybe?</t>
   </si>
   <si>
+    <t>Um anel, que tal?</t>
+  </si>
+  <si>
     <t>Seriously? Well, if that's what you want.</t>
+  </si>
+  <si>
+    <t>Sério? Bom, se é isso que você quer.</t>
   </si>
 </sst>
 </file>
@@ -223,7 +359,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -231,10 +367,10 @@
         <v>385128</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -242,10 +378,10 @@
         <v>385400</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -253,10 +389,10 @@
         <v>385672</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -264,10 +400,10 @@
         <v>385944</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7">
@@ -275,10 +411,10 @@
         <v>386216</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -286,10 +422,10 @@
         <v>386488</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -297,10 +433,10 @@
         <v>386760</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -308,10 +444,10 @@
         <v>387032</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -319,10 +455,10 @@
         <v>387304</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
@@ -330,10 +466,10 @@
         <v>387576</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -341,10 +477,10 @@
         <v>387848</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
@@ -352,10 +488,10 @@
         <v>388120</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
@@ -363,10 +499,10 @@
         <v>388392</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
@@ -374,10 +510,10 @@
         <v>388664</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -385,10 +521,10 @@
         <v>388936</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
@@ -396,10 +532,10 @@
         <v>389208</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -407,10 +543,10 @@
         <v>389480</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
@@ -418,10 +554,10 @@
         <v>389752</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
@@ -429,10 +565,10 @@
         <v>390024</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22">
@@ -440,10 +576,10 @@
         <v>390296</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
@@ -451,10 +587,10 @@
         <v>390568</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
@@ -462,10 +598,10 @@
         <v>390840</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
@@ -473,10 +609,10 @@
         <v>391112</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
@@ -484,10 +620,10 @@
         <v>391384</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
@@ -495,10 +631,10 @@
         <v>391656</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
@@ -506,10 +642,10 @@
         <v>391928</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29">
@@ -517,10 +653,10 @@
         <v>392200</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30">
@@ -528,10 +664,10 @@
         <v>392472</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
@@ -539,10 +675,10 @@
         <v>392744</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32">
@@ -550,10 +686,10 @@
         <v>393016</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33">
@@ -561,10 +697,10 @@
         <v>393288</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34">
@@ -572,10 +708,10 @@
         <v>393560</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35">
@@ -583,10 +719,10 @@
         <v>393832</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
@@ -594,10 +730,10 @@
         <v>394104</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
@@ -605,10 +741,10 @@
         <v>394376</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38">
@@ -616,10 +752,10 @@
         <v>394648</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
@@ -627,10 +763,10 @@
         <v>394920</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40">
@@ -638,10 +774,10 @@
         <v>395192</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41">
@@ -649,10 +785,10 @@
         <v>395464</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42">
@@ -660,10 +796,10 @@
         <v>395736</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43">
@@ -671,10 +807,10 @@
         <v>396008</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
@@ -682,10 +818,10 @@
         <v>396280</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45">
@@ -693,10 +829,10 @@
         <v>396552</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
